--- a/Dataset/Authors/PLAUT_frg.xlsx
+++ b/Dataset/Authors/PLAUT_frg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\output_excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B2E37C-1050-430A-B82D-D8B7C76286A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330783E0-562A-4AA9-B79D-A6C2C2DE7922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>fumificus</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>PLAUT. frg.</t>
+  </si>
+  <si>
+    <t>acipenser</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -507,7 +510,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -515,7 +518,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -523,7 +526,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -531,7 +534,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -539,7 +542,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -547,13 +550,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B12">
+    <sortCondition ref="A12"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>